--- a/ALEGRETE.xlsx
+++ b/ALEGRETE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gera-fichas\Comarcas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{20F6D183-052D-47C5-9747-220C5F45CF60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D0A31530-8B6F-478E-980F-4625E64425F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,20 +21,7 @@
     <sheet name="Recolhimento x Eliminacao" sheetId="5" r:id="rId6"/>
     <sheet name="Desarquivamentos Pendentes" sheetId="6" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -1086,7 +1073,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -1146,36 +1133,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1214,14 +1177,9 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1267,7 +1225,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{7FB6860A-1BB1-4F99-BBFA-15F77B40CE6B}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{38321554-B9E3-424E-BFCE-5BA887AD8A7E}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1297,10 +1255,10 @@
         <xdr:cNvPr id="2" name="Chart1" title="Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD08E7E9-51E4-4AEA-BCE6-20AD71EBB45D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{791CB0D4-EBF3-4091-835A-ABCA3426D20B}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
-              <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
+              <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" pictureOfChart="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1338,7 +1296,7 @@
         <xdr:cNvPr id="3" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C94455EA-484A-4CC2-9061-009EFE3A1645}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6AB7DFC-1EED-4CE6-A3C7-E2187B535610}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1401,7 +1359,7 @@
         <xdr:cNvPr id="4" name="Shape 2" title="Desenho">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{881DDEBF-68E6-4078-A912-A9DE23B31008}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DAB79D11-2229-41B3-ADE7-1D45C9312FFF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1420,7 +1378,7 @@
           <xdr:cNvPr id="5" name="Shape 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA68DFFC-C754-336B-D9B0-07486040F739}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9CA881E4-581D-C655-61A1-B0F1210C8BB6}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1469,7 +1427,7 @@
           <xdr:cNvPr id="6" name="Shape 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{224E85A1-6DF3-D7A8-9BA2-9BA04333091B}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{77B23F3C-7507-2815-F8C6-A27A4AD88095}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1488,7 +1446,7 @@
             <xdr:cNvPr id="7" name="Shape 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FAA1B6D-DB68-6A59-4286-EC0915EAAFFF}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F9E125E-3560-CAC5-295D-02027CF6791A}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1519,7 +1477,7 @@
             <xdr:cNvPr id="8" name="Shape 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9CC4DA4E-13C2-A136-AB97-43534D645B38}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1CC48BF1-CBF6-D76A-69CF-53BF75B53D31}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1550,7 +1508,7 @@
             <xdr:cNvPr id="9" name="Shape 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{960589F7-3076-BEDE-4D14-8F7FC2CC3E0C}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B1684E7D-BBB2-C67F-CFB7-F014B6C937C5}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1593,7 +1551,7 @@
         <xdr:cNvPr id="10" name="image2.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{716EDD91-26B3-485D-A834-7A1346876576}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{703A3971-C33C-4FF2-9F5E-1A417CE035B6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1631,7 +1589,7 @@
         <xdr:cNvPr id="11" name="image1.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6288DFAF-E7CA-41BC-BC7C-BADB65673043}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A67EB73A-6BB2-451A-B8F5-1E9B3D51EDCD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1674,7 +1632,7 @@
         <xdr:cNvPr id="12" name="Imagem 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{752C3562-16D5-447D-8416-F2070F21DA9B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C6A2981-94D2-4594-9EE1-F224559A77A4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1987,7 +1945,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA3B15E2-B4C4-4E74-AEF3-B70126F0639B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59ED3FC3-3319-4A29-97DA-4F542F0D6284}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -1999,98 +1957,98 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="5" width="12.5703125" style="37"/>
-    <col min="6" max="6" width="2" style="37" customWidth="1"/>
-    <col min="7" max="16" width="13.42578125" style="37" customWidth="1"/>
-    <col min="17" max="16384" width="12.5703125" style="37"/>
+    <col min="1" max="5" width="12.5703125" style="34"/>
+    <col min="6" max="6" width="2" style="34" customWidth="1"/>
+    <col min="7" max="16" width="13.42578125" style="34" customWidth="1"/>
+    <col min="17" max="16384" width="12.5703125" style="34"/>
   </cols>
   <sheetData>
     <row r="1" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F1" s="36"/>
+      <c r="F1" s="33"/>
     </row>
     <row r="2" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F2" s="36"/>
+      <c r="F2" s="33"/>
     </row>
     <row r="3" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F3" s="36"/>
+      <c r="F3" s="33"/>
     </row>
     <row r="4" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F4" s="36"/>
+      <c r="F4" s="33"/>
     </row>
     <row r="5" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F5" s="36"/>
+      <c r="F5" s="33"/>
     </row>
     <row r="6" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F6" s="36"/>
+      <c r="F6" s="33"/>
     </row>
     <row r="7" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F7" s="36"/>
+      <c r="F7" s="33"/>
     </row>
     <row r="8" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F8" s="36"/>
+      <c r="F8" s="33"/>
     </row>
     <row r="9" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F9" s="36"/>
+      <c r="F9" s="33"/>
     </row>
     <row r="10" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F10" s="36"/>
+      <c r="F10" s="33"/>
     </row>
     <row r="11" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F11" s="36"/>
+      <c r="F11" s="33"/>
     </row>
     <row r="12" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F12" s="36"/>
+      <c r="F12" s="33"/>
     </row>
     <row r="13" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F13" s="36"/>
+      <c r="F13" s="33"/>
     </row>
     <row r="14" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F14" s="36"/>
+      <c r="F14" s="33"/>
     </row>
     <row r="15" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F15" s="36"/>
+      <c r="F15" s="33"/>
     </row>
     <row r="16" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F16" s="36"/>
+      <c r="F16" s="33"/>
     </row>
     <row r="17" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F17" s="36"/>
+      <c r="F17" s="33"/>
     </row>
     <row r="18" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F18" s="36"/>
+      <c r="F18" s="33"/>
     </row>
     <row r="19" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F19" s="36"/>
+      <c r="F19" s="33"/>
     </row>
     <row r="20" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F20" s="36"/>
+      <c r="F20" s="33"/>
     </row>
     <row r="21" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F21" s="36"/>
+      <c r="F21" s="33"/>
     </row>
     <row r="22" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F22" s="36"/>
+      <c r="F22" s="33"/>
     </row>
     <row r="23" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F23" s="36"/>
+      <c r="F23" s="33"/>
     </row>
     <row r="24" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F24" s="36"/>
+      <c r="F24" s="33"/>
     </row>
     <row r="25" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F25" s="36"/>
+      <c r="F25" s="33"/>
     </row>
     <row r="26" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F26" s="36"/>
+      <c r="F26" s="33"/>
     </row>
     <row r="27" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F27" s="36"/>
+      <c r="F27" s="33"/>
     </row>
     <row r="28" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F28" s="36"/>
+      <c r="F28" s="33"/>
     </row>
     <row r="29" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F29" s="36"/>
+      <c r="F29" s="33"/>
     </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -5388,19 +5346,19 @@
     <col min="2" max="2" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="16" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="2" t="s">
         <v>275</v>
       </c>
     </row>
@@ -5423,79 +5381,79 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="18" t="s">
         <v>276</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="17" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="19" t="s">
         <v>10</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="19" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="19" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="19" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="19" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="19" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="22" t="s">
+      <c r="A5" s="19" t="s">
         <v>10</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="C5" s="22" t="s">
+      <c r="C5" s="19" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="19" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="C6" s="22" t="s">
+      <c r="C6" s="19" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="22" t="s">
+      <c r="A7" s="19" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="C7" s="22" t="s">
+      <c r="C7" s="19" t="s">
         <v>279</v>
       </c>
     </row>
@@ -5520,54 +5478,55 @@
     <col min="6" max="6" width="12.5703125" customWidth="1"/>
     <col min="7" max="7" width="13" customWidth="1"/>
     <col min="8" max="8" width="15.42578125" customWidth="1"/>
-    <col min="9" max="14" width="13" customWidth="1"/>
-    <col min="15" max="15" width="30.85546875" customWidth="1"/>
+    <col min="9" max="12" width="13" customWidth="1"/>
+    <col min="13" max="13" width="42.140625" customWidth="1"/>
+    <col min="14" max="15" width="13" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="20" t="s">
         <v>286</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="21" t="s">
         <v>287</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="21" t="s">
         <v>288</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="21" t="s">
         <v>289</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="E1" s="21" t="s">
         <v>290</v>
       </c>
-      <c r="F1" s="25" t="s">
+      <c r="F1" s="22" t="s">
         <v>291</v>
       </c>
-      <c r="G1" s="25" t="s">
+      <c r="G1" s="22" t="s">
         <v>292</v>
       </c>
-      <c r="H1" s="23" t="s">
+      <c r="H1" s="20" t="s">
         <v>293</v>
       </c>
-      <c r="I1" s="23" t="s">
+      <c r="I1" s="20" t="s">
         <v>294</v>
       </c>
-      <c r="J1" s="23" t="s">
+      <c r="J1" s="20" t="s">
         <v>295</v>
       </c>
-      <c r="K1" s="23" t="s">
+      <c r="K1" s="20" t="s">
         <v>296</v>
       </c>
-      <c r="L1" s="23" t="s">
+      <c r="L1" s="20" t="s">
         <v>297</v>
       </c>
-      <c r="M1" s="23" t="s">
+      <c r="M1" s="20" t="s">
         <v>298</v>
       </c>
-      <c r="N1" s="23" t="s">
+      <c r="N1" s="20" t="s">
         <v>299</v>
       </c>
-      <c r="O1" s="23" t="s">
+      <c r="O1" s="20" t="s">
         <v>300</v>
       </c>
     </row>
@@ -5578,43 +5537,43 @@
       <c r="B2" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="C2" s="26">
+      <c r="C2" s="23">
         <v>45717</v>
       </c>
-      <c r="D2" s="27">
+      <c r="D2" s="24">
         <v>6425</v>
       </c>
-      <c r="E2" s="27" t="s">
+      <c r="E2" s="24" t="s">
         <v>302</v>
       </c>
-      <c r="F2" s="28">
+      <c r="F2" s="25">
         <v>27485</v>
       </c>
-      <c r="G2" s="28">
+      <c r="G2" s="25">
         <v>3039</v>
       </c>
-      <c r="H2" s="29" t="s">
+      <c r="H2" s="26" t="s">
         <v>303</v>
       </c>
-      <c r="I2" s="29" t="s">
+      <c r="I2" s="26" t="s">
         <v>303</v>
       </c>
-      <c r="J2" s="29" t="s">
+      <c r="J2" s="26" t="s">
         <v>303</v>
       </c>
-      <c r="K2" s="29" t="s">
+      <c r="K2" s="26" t="s">
         <v>303</v>
       </c>
-      <c r="L2" s="29" t="s">
+      <c r="L2" s="26" t="s">
         <v>303</v>
       </c>
-      <c r="M2" s="30" t="s">
+      <c r="M2" s="27" t="s">
         <v>304</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="O2" s="30" t="s">
+      <c r="O2" s="27" t="s">
         <v>304</v>
       </c>
     </row>
@@ -5645,25 +5604,24 @@
       <c r="B1" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="C1" s="31" t="s">
+      <c r="C1" s="28" t="s">
         <v>307</v>
       </c>
-      <c r="E1" s="32">
-        <f>SUM(B2:B157)</f>
+      <c r="E1" s="29">
+        <v>15072</v>
+      </c>
+      <c r="F1" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="31" t="s">
+        <v>308</v>
+      </c>
+      <c r="B2" s="32">
         <v>75</v>
       </c>
-      <c r="F1" s="33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="34" t="s">
-        <v>308</v>
-      </c>
-      <c r="B2" s="35">
-        <v>75</v>
-      </c>
-      <c r="C2" s="33">
+      <c r="C2" s="30">
         <v>4.9596614204470311E-3</v>
       </c>
     </row>

--- a/ALEGRETE.xlsx
+++ b/ALEGRETE.xlsx
@@ -8,25 +8,26 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gera-fichas\Comarcas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D0A31530-8B6F-478E-980F-4625E64425F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3E1E1ECA-13A5-408B-92AE-7F0C3B2139C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Paineis DARQ" sheetId="7" r:id="rId1"/>
+    <sheet name="Paineis DARQ" sheetId="8" r:id="rId1"/>
     <sheet name="DESFAZIMENTOS" sheetId="1" r:id="rId2"/>
     <sheet name="MATERIAIS-FORNECIDOS" sheetId="2" r:id="rId3"/>
     <sheet name="DATA-LIMITE-REQUISICOES" sheetId="3" r:id="rId4"/>
     <sheet name="CPIP" sheetId="4" r:id="rId5"/>
     <sheet name="Recolhimento x Eliminacao" sheetId="5" r:id="rId6"/>
     <sheet name="Desarquivamentos Pendentes" sheetId="6" r:id="rId7"/>
+    <sheet name="DGC" sheetId="7" r:id="rId8"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="750" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="759" uniqueCount="315">
   <si>
     <t>COMARCA</t>
   </si>
@@ -953,6 +954,24 @@
   </si>
   <si>
     <t>ALEGRETE</t>
+  </si>
+  <si>
+    <t>TEMÁTICA</t>
+  </si>
+  <si>
+    <t>PROBLEMA</t>
+  </si>
+  <si>
+    <t>MOT-Diversos</t>
+  </si>
+  <si>
+    <t>Demora nos Atestes MOT/não responde TEAMS nem e-mail</t>
+  </si>
+  <si>
+    <t>MAOBRAS/MATIC</t>
+  </si>
+  <si>
+    <t>Atraso no ateste.</t>
   </si>
 </sst>
 </file>
@@ -962,7 +981,7 @@
   <numFmts count="1">
     <numFmt numFmtId="165" formatCode="&quot; &quot;mmmm&quot; / &quot;yyyy"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1015,6 +1034,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -1029,7 +1061,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1064,6 +1096,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFF4C7C3"/>
         <bgColor rgb="FFF4C7C3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9D9D9"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
@@ -1136,9 +1174,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1220,12 +1258,16 @@
     <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{38321554-B9E3-424E-BFCE-5BA887AD8A7E}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{5ABEE2DB-E06A-487B-9B2E-346713B06FE5}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1255,10 +1297,10 @@
         <xdr:cNvPr id="2" name="Chart1" title="Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{791CB0D4-EBF3-4091-835A-ABCA3426D20B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB2B628D-324B-454E-8345-23F5BC7D4F02}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
-              <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" pictureOfChart="1"/>
+              <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1296,7 +1338,7 @@
         <xdr:cNvPr id="3" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6AB7DFC-1EED-4CE6-A3C7-E2187B535610}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9855A795-2903-4255-9AF4-F62FA73D830A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1359,7 +1401,7 @@
         <xdr:cNvPr id="4" name="Shape 2" title="Desenho">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DAB79D11-2229-41B3-ADE7-1D45C9312FFF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FDB24031-5DF0-4351-840A-647790DCABC0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1378,7 +1420,7 @@
           <xdr:cNvPr id="5" name="Shape 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9CA881E4-581D-C655-61A1-B0F1210C8BB6}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F730880E-4AFF-A205-82C8-2CC90A561657}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1427,7 +1469,7 @@
           <xdr:cNvPr id="6" name="Shape 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{77B23F3C-7507-2815-F8C6-A27A4AD88095}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{22E3E961-A051-961C-11F5-DAA5BAC79B5E}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1446,7 +1488,7 @@
             <xdr:cNvPr id="7" name="Shape 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F9E125E-3560-CAC5-295D-02027CF6791A}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{009156A7-B934-29CA-B9F8-F9DA3CD73DA0}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1477,7 +1519,7 @@
             <xdr:cNvPr id="8" name="Shape 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1CC48BF1-CBF6-D76A-69CF-53BF75B53D31}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CCD57754-9ED7-BCCC-E3AF-EB290BC17F8C}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1508,7 +1550,7 @@
             <xdr:cNvPr id="9" name="Shape 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B1684E7D-BBB2-C67F-CFB7-F014B6C937C5}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E7D0570-60CB-B874-0D10-21BDBF8E519A}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1551,7 +1593,7 @@
         <xdr:cNvPr id="10" name="image2.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{703A3971-C33C-4FF2-9F5E-1A417CE035B6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7834BD-A627-4ABA-B0A0-29D7A692FA4D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1589,7 +1631,7 @@
         <xdr:cNvPr id="11" name="image1.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A67EB73A-6BB2-451A-B8F5-1E9B3D51EDCD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2731D003-EAD1-4501-B823-1446ACE4E2D1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1632,7 +1674,7 @@
         <xdr:cNvPr id="12" name="Imagem 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C6A2981-94D2-4594-9EE1-F224559A77A4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82B2BF0A-256B-45F7-A717-E56F39AA6EE6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1945,7 +1987,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59ED3FC3-3319-4A29-97DA-4F542F0D6284}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B766AE2F-D798-47C3-9BA4-C71939A4A3C6}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -1957,98 +1999,98 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="5" width="12.5703125" style="34"/>
-    <col min="6" max="6" width="2" style="34" customWidth="1"/>
-    <col min="7" max="16" width="13.42578125" style="34" customWidth="1"/>
-    <col min="17" max="16384" width="12.5703125" style="34"/>
+    <col min="1" max="5" width="12.5703125" style="36"/>
+    <col min="6" max="6" width="2" style="36" customWidth="1"/>
+    <col min="7" max="16" width="13.42578125" style="36" customWidth="1"/>
+    <col min="17" max="16384" width="12.5703125" style="36"/>
   </cols>
   <sheetData>
     <row r="1" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F1" s="33"/>
+      <c r="F1" s="35"/>
     </row>
     <row r="2" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F2" s="33"/>
+      <c r="F2" s="35"/>
     </row>
     <row r="3" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F3" s="33"/>
+      <c r="F3" s="35"/>
     </row>
     <row r="4" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F4" s="33"/>
+      <c r="F4" s="35"/>
     </row>
     <row r="5" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F5" s="33"/>
+      <c r="F5" s="35"/>
     </row>
     <row r="6" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F6" s="33"/>
+      <c r="F6" s="35"/>
     </row>
     <row r="7" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F7" s="33"/>
+      <c r="F7" s="35"/>
     </row>
     <row r="8" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F8" s="33"/>
+      <c r="F8" s="35"/>
     </row>
     <row r="9" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F9" s="33"/>
+      <c r="F9" s="35"/>
     </row>
     <row r="10" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F10" s="33"/>
+      <c r="F10" s="35"/>
     </row>
     <row r="11" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F11" s="33"/>
+      <c r="F11" s="35"/>
     </row>
     <row r="12" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F12" s="33"/>
+      <c r="F12" s="35"/>
     </row>
     <row r="13" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F13" s="33"/>
+      <c r="F13" s="35"/>
     </row>
     <row r="14" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F14" s="33"/>
+      <c r="F14" s="35"/>
     </row>
     <row r="15" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F15" s="33"/>
+      <c r="F15" s="35"/>
     </row>
     <row r="16" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F16" s="33"/>
+      <c r="F16" s="35"/>
     </row>
     <row r="17" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F17" s="33"/>
+      <c r="F17" s="35"/>
     </row>
     <row r="18" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F18" s="33"/>
+      <c r="F18" s="35"/>
     </row>
     <row r="19" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F19" s="33"/>
+      <c r="F19" s="35"/>
     </row>
     <row r="20" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F20" s="33"/>
+      <c r="F20" s="35"/>
     </row>
     <row r="21" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F21" s="33"/>
+      <c r="F21" s="35"/>
     </row>
     <row r="22" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F22" s="33"/>
+      <c r="F22" s="35"/>
     </row>
     <row r="23" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F23" s="33"/>
+      <c r="F23" s="35"/>
     </row>
     <row r="24" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F24" s="33"/>
+      <c r="F24" s="35"/>
     </row>
     <row r="25" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F25" s="33"/>
+      <c r="F25" s="35"/>
     </row>
     <row r="26" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F26" s="33"/>
+      <c r="F26" s="35"/>
     </row>
     <row r="27" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F27" s="33"/>
+      <c r="F27" s="35"/>
     </row>
     <row r="28" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F28" s="33"/>
+      <c r="F28" s="35"/>
     </row>
     <row r="29" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F29" s="33"/>
+      <c r="F29" s="35"/>
     </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -5628,4 +5670,55 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26.42578125" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" customWidth="1"/>
+    <col min="3" max="3" width="88.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="33" t="s">
+        <v>309</v>
+      </c>
+      <c r="C1" s="33" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="34" t="s">
+        <v>311</v>
+      </c>
+      <c r="C2" s="34" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="34" t="s">
+        <v>313</v>
+      </c>
+      <c r="C3" s="34" t="s">
+        <v>314</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/ALEGRETE.xlsx
+++ b/ALEGRETE.xlsx
@@ -8,26 +8,25 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gera-fichas\Comarcas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3E1E1ECA-13A5-408B-92AE-7F0C3B2139C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3D55A0A0-87CF-4F74-B7A8-33FEFCA92316}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Paineis DARQ" sheetId="8" r:id="rId1"/>
+    <sheet name="PAINEIS DARQ" sheetId="7" r:id="rId1"/>
     <sheet name="DESFAZIMENTOS" sheetId="1" r:id="rId2"/>
     <sheet name="MATERIAIS-FORNECIDOS" sheetId="2" r:id="rId3"/>
     <sheet name="DATA-LIMITE-REQUISICOES" sheetId="3" r:id="rId4"/>
     <sheet name="CPIP" sheetId="4" r:id="rId5"/>
-    <sheet name="Recolhimento x Eliminacao" sheetId="5" r:id="rId6"/>
-    <sheet name="Desarquivamentos Pendentes" sheetId="6" r:id="rId7"/>
-    <sheet name="DGC" sheetId="7" r:id="rId8"/>
+    <sheet name="RECOLHIMENTO X ELIMINAÇÃO" sheetId="5" r:id="rId6"/>
+    <sheet name="DGC" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="759" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="755" uniqueCount="312">
   <si>
     <t>COMARCA</t>
   </si>
@@ -945,15 +944,6 @@
   </si>
   <si>
     <t>-</t>
-  </si>
-  <si>
-    <t>PEDIDOS PENDENTES</t>
-  </si>
-  <si>
-    <t>%</t>
-  </si>
-  <si>
-    <t>ALEGRETE</t>
   </si>
   <si>
     <t>TEMÁTICA</t>
@@ -1176,7 +1166,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1243,21 +1233,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1267,7 +1242,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{5ABEE2DB-E06A-487B-9B2E-346713B06FE5}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{FBDD65F5-8D87-4CFA-94A7-8F8B2954A60F}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1297,10 +1272,10 @@
         <xdr:cNvPr id="2" name="Chart1" title="Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB2B628D-324B-454E-8345-23F5BC7D4F02}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C29B9EB-9FEF-46D0-8DFC-80545A1FDB9E}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
-              <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
+              <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" pictureOfChart="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1338,7 +1313,7 @@
         <xdr:cNvPr id="3" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9855A795-2903-4255-9AF4-F62FA73D830A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A160222-FDC5-42D8-8CC7-89DAA58DDADF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1401,7 +1376,7 @@
         <xdr:cNvPr id="4" name="Shape 2" title="Desenho">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FDB24031-5DF0-4351-840A-647790DCABC0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ADEC1F0E-37B1-4B86-A303-9CE5E7B391F3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1420,7 +1395,7 @@
           <xdr:cNvPr id="5" name="Shape 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F730880E-4AFF-A205-82C8-2CC90A561657}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37BD74EB-EDC3-99F1-4A9C-27BAECEC8296}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1469,7 +1444,7 @@
           <xdr:cNvPr id="6" name="Shape 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{22E3E961-A051-961C-11F5-DAA5BAC79B5E}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86C0F3EE-9211-99D2-F909-10DC73730B56}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1488,7 +1463,7 @@
             <xdr:cNvPr id="7" name="Shape 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{009156A7-B934-29CA-B9F8-F9DA3CD73DA0}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48497EC0-5C4B-4BDB-DC5C-5BF4FB2770B9}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1519,7 +1494,7 @@
             <xdr:cNvPr id="8" name="Shape 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CCD57754-9ED7-BCCC-E3AF-EB290BC17F8C}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{018785ED-BBA1-DB31-B111-60ADD8E5161F}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1550,7 +1525,7 @@
             <xdr:cNvPr id="9" name="Shape 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E7D0570-60CB-B874-0D10-21BDBF8E519A}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8B422B0-9A0F-524F-8D3C-31CFC2BCDDAE}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1593,7 +1568,7 @@
         <xdr:cNvPr id="10" name="image2.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7834BD-A627-4ABA-B0A0-29D7A692FA4D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48471556-BBD3-43FF-8555-5075466898EF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1631,7 +1606,7 @@
         <xdr:cNvPr id="11" name="image1.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2731D003-EAD1-4501-B823-1446ACE4E2D1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2AE28FC-87FA-48FF-9301-444EAEEAE3AB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1674,7 +1649,7 @@
         <xdr:cNvPr id="12" name="Imagem 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82B2BF0A-256B-45F7-A717-E56F39AA6EE6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6AB2AE9E-32BC-42F0-94EA-9B3B614974FA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1987,7 +1962,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B766AE2F-D798-47C3-9BA4-C71939A4A3C6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{473E5AF8-AA68-47C7-915B-AF7B9BA98152}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -1999,98 +1974,98 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="5" width="12.5703125" style="36"/>
-    <col min="6" max="6" width="2" style="36" customWidth="1"/>
-    <col min="7" max="16" width="13.42578125" style="36" customWidth="1"/>
-    <col min="17" max="16384" width="12.5703125" style="36"/>
+    <col min="1" max="5" width="12.5703125" style="31"/>
+    <col min="6" max="6" width="2" style="31" customWidth="1"/>
+    <col min="7" max="16" width="13.42578125" style="31" customWidth="1"/>
+    <col min="17" max="16384" width="12.5703125" style="31"/>
   </cols>
   <sheetData>
     <row r="1" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F1" s="35"/>
+      <c r="F1" s="30"/>
     </row>
     <row r="2" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F2" s="35"/>
+      <c r="F2" s="30"/>
     </row>
     <row r="3" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F3" s="35"/>
+      <c r="F3" s="30"/>
     </row>
     <row r="4" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F4" s="35"/>
+      <c r="F4" s="30"/>
     </row>
     <row r="5" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F5" s="35"/>
+      <c r="F5" s="30"/>
     </row>
     <row r="6" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F6" s="35"/>
+      <c r="F6" s="30"/>
     </row>
     <row r="7" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F7" s="35"/>
+      <c r="F7" s="30"/>
     </row>
     <row r="8" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F8" s="35"/>
+      <c r="F8" s="30"/>
     </row>
     <row r="9" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F9" s="35"/>
+      <c r="F9" s="30"/>
     </row>
     <row r="10" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F10" s="35"/>
+      <c r="F10" s="30"/>
     </row>
     <row r="11" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F11" s="35"/>
+      <c r="F11" s="30"/>
     </row>
     <row r="12" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F12" s="35"/>
+      <c r="F12" s="30"/>
     </row>
     <row r="13" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F13" s="35"/>
+      <c r="F13" s="30"/>
     </row>
     <row r="14" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F14" s="35"/>
+      <c r="F14" s="30"/>
     </row>
     <row r="15" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F15" s="35"/>
+      <c r="F15" s="30"/>
     </row>
     <row r="16" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F16" s="35"/>
+      <c r="F16" s="30"/>
     </row>
     <row r="17" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F17" s="35"/>
+      <c r="F17" s="30"/>
     </row>
     <row r="18" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F18" s="35"/>
+      <c r="F18" s="30"/>
     </row>
     <row r="19" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F19" s="35"/>
+      <c r="F19" s="30"/>
     </row>
     <row r="20" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F20" s="35"/>
+      <c r="F20" s="30"/>
     </row>
     <row r="21" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F21" s="35"/>
+      <c r="F21" s="30"/>
     </row>
     <row r="22" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F22" s="35"/>
+      <c r="F22" s="30"/>
     </row>
     <row r="23" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F23" s="35"/>
+      <c r="F23" s="30"/>
     </row>
     <row r="24" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F24" s="35"/>
+      <c r="F24" s="30"/>
     </row>
     <row r="25" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F25" s="35"/>
+      <c r="F25" s="30"/>
     </row>
     <row r="26" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F26" s="35"/>
+      <c r="F26" s="30"/>
     </row>
     <row r="27" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F27" s="35"/>
+      <c r="F27" s="30"/>
     </row>
     <row r="28" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F28" s="35"/>
+      <c r="F28" s="30"/>
     </row>
     <row r="29" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F29" s="35"/>
+      <c r="F29" s="30"/>
     </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -5626,54 +5601,6 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:F2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="35" customWidth="1"/>
-    <col min="2" max="2" width="31.85546875" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" customWidth="1"/>
-    <col min="5" max="6" width="13" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="C1" s="28" t="s">
-        <v>307</v>
-      </c>
-      <c r="E1" s="29">
-        <v>15072</v>
-      </c>
-      <c r="F1" s="30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="31" t="s">
-        <v>308</v>
-      </c>
-      <c r="B2" s="32">
-        <v>75</v>
-      </c>
-      <c r="C2" s="30">
-        <v>4.9596614204470311E-3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -5686,36 +5613,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="28" t="s">
+        <v>306</v>
+      </c>
+      <c r="C1" s="28" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="29" t="s">
+        <v>308</v>
+      </c>
+      <c r="C2" s="29" t="s">
         <v>309</v>
       </c>
-      <c r="C1" s="33" t="s">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="29" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="34" t="s">
+      <c r="C3" s="29" t="s">
         <v>311</v>
-      </c>
-      <c r="C2" s="34" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="34" t="s">
-        <v>313</v>
-      </c>
-      <c r="C3" s="34" t="s">
-        <v>314</v>
       </c>
     </row>
   </sheetData>

--- a/ALEGRETE.xlsx
+++ b/ALEGRETE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gera-fichas\Comarcas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3D55A0A0-87CF-4F74-B7A8-33FEFCA92316}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B41ECA70-49C8-4FBD-8137-6610F66E7102}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1242,7 +1242,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{FBDD65F5-8D87-4CFA-94A7-8F8B2954A60F}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{F0F6630C-4374-4C0C-B357-4B11D8692EC6}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1272,10 +1272,10 @@
         <xdr:cNvPr id="2" name="Chart1" title="Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C29B9EB-9FEF-46D0-8DFC-80545A1FDB9E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F20377F-E7BB-4D57-A6C5-3FB971814421}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
-              <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" pictureOfChart="1"/>
+              <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1313,7 +1313,7 @@
         <xdr:cNvPr id="3" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A160222-FDC5-42D8-8CC7-89DAA58DDADF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA2F309B-EE66-42FA-9FA7-3CD3AABAC2F4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1376,7 +1376,7 @@
         <xdr:cNvPr id="4" name="Shape 2" title="Desenho">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ADEC1F0E-37B1-4B86-A303-9CE5E7B391F3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB83CCBB-2BA8-4F6E-B052-4662109A99D6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1395,7 +1395,7 @@
           <xdr:cNvPr id="5" name="Shape 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37BD74EB-EDC3-99F1-4A9C-27BAECEC8296}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{381DEF46-0F81-B794-51D1-4A780C65DD7F}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1444,7 +1444,7 @@
           <xdr:cNvPr id="6" name="Shape 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86C0F3EE-9211-99D2-F909-10DC73730B56}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C08512DE-9BFC-C424-98EA-334FAC227757}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1463,7 +1463,7 @@
             <xdr:cNvPr id="7" name="Shape 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48497EC0-5C4B-4BDB-DC5C-5BF4FB2770B9}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8FEDFFA4-3F36-8EA2-0F5B-7DFB4A3912E1}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1494,7 +1494,7 @@
             <xdr:cNvPr id="8" name="Shape 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{018785ED-BBA1-DB31-B111-60ADD8E5161F}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A2D4906-D651-EA15-FAB0-8434D1D02BD2}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1525,7 +1525,7 @@
             <xdr:cNvPr id="9" name="Shape 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8B422B0-9A0F-524F-8D3C-31CFC2BCDDAE}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7ADF6D0-FFDD-54F2-D705-739B2E083E6E}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1568,7 +1568,7 @@
         <xdr:cNvPr id="10" name="image2.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48471556-BBD3-43FF-8555-5075466898EF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B47310A-9D4C-4DE9-8FCC-1E2662BF7DFE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1606,7 +1606,7 @@
         <xdr:cNvPr id="11" name="image1.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2AE28FC-87FA-48FF-9301-444EAEEAE3AB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7EBE30E-8619-4BD1-BD5C-F23BC3FA8997}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1631,50 +1631,6 @@
     </xdr:pic>
     <xdr:clientData fLocksWithSheet="0"/>
   </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>315640</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>143650</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="Imagem 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6AB2AE9E-32BC-42F0-94EA-9B3B614974FA}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1485900" y="6219825"/>
-          <a:ext cx="9421540" cy="4525150"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1962,7 +1918,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{473E5AF8-AA68-47C7-915B-AF7B9BA98152}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70FEED31-1164-45EB-A1A4-B786BCE7F6CF}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
